--- a/ui-testsuite/src/main/resources/TestData/Order_AssignRule_APJ_JAPAN_ADM_ITOM_IM_VERTICA.xlsx
+++ b/ui-testsuite/src/main/resources/TestData/Order_AssignRule_APJ_JAPAN_ADM_ITOM_IM_VERTICA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Pipeline\Data test\"/>
     </mc:Choice>
@@ -21,7 +21,7 @@
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="182">
   <si>
     <t>Payer Customer Identifier</t>
   </si>
@@ -527,6 +527,54 @@
   </si>
   <si>
     <t>1i3y913jjshhaflh</t>
+  </si>
+  <si>
+    <t>qftzre1859038172</t>
+  </si>
+  <si>
+    <t>1992543142</t>
+  </si>
+  <si>
+    <t>qydezb4582998636</t>
+  </si>
+  <si>
+    <t>1336383002</t>
+  </si>
+  <si>
+    <t>rihrrn2784419341</t>
+  </si>
+  <si>
+    <t>5153177874</t>
+  </si>
+  <si>
+    <t>dlpksy3718975774</t>
+  </si>
+  <si>
+    <t>6063040810</t>
+  </si>
+  <si>
+    <t>lyjtms8409095169</t>
+  </si>
+  <si>
+    <t>7849690714</t>
+  </si>
+  <si>
+    <t>qqwczs4534092789</t>
+  </si>
+  <si>
+    <t>4794681600</t>
+  </si>
+  <si>
+    <t>rioyyk0915167780</t>
+  </si>
+  <si>
+    <t>3252766404</t>
+  </si>
+  <si>
+    <t>finbto3907360960</t>
+  </si>
+  <si>
+    <t>3368274369</t>
   </si>
 </sst>
 </file>
@@ -536,7 +584,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="16">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -585,6 +633,46 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1024,73 +1112,73 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
   <cols>
-    <col min="1" max="1" width="20.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="87.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="87.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="138.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="108.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="117.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="86.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="25.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="30.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="25.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="44.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="37.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="30" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="30.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="34.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="21.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="23" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="30.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="22.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="28.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="26.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="37.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="17.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="25.6640625" style="1" customWidth="1"/>
-    <col min="38" max="38" width="27" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="28.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="35.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="37.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="20.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="19" style="1" customWidth="1"/>
-    <col min="46" max="47" width="19" style="2" customWidth="1"/>
-    <col min="48" max="52" width="19" style="1" customWidth="1"/>
-    <col min="53" max="53" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="57" max="58" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="64" max="66" width="23.5" style="13" customWidth="1"/>
-    <col min="67" max="70" width="22.33203125" style="2" customWidth="1"/>
-    <col min="71" max="71" width="23.5" style="2" customWidth="1"/>
-    <col min="72" max="72" width="23.5" style="1" customWidth="1"/>
-    <col min="73" max="73" width="23.5" style="2" customWidth="1"/>
-    <col min="74" max="74" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="80" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="20.5" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="87.33203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="21.83203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="87.33203125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="24.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="138.83203125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="24.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="108.5" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="24.0" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="117.6640625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="86.33203125" collapsed="true"/>
+    <col min="12" max="14" bestFit="true" customWidth="true" style="1" width="25.83203125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="1" width="30.33203125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="1" width="25.83203125" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="1" width="22.6640625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="44.33203125" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="1" width="16.83203125" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="1" width="37.5" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="30.0" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="1" width="30.83203125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="1" width="34.1640625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="1" width="21.83203125" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="21.1640625" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="18.1640625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="16.0" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="16.33203125" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="1" width="23.0" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="1" width="25.0" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="1" width="30.83203125" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="1" width="22.1640625" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="1" width="28.5" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="1" width="26.33203125" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="1" width="37.33203125" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="1" width="17.1640625" collapsed="true"/>
+    <col min="37" max="37" customWidth="true" style="1" width="25.6640625" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" style="1" width="27.0" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" style="1" width="28.5" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" style="1" width="35.5" collapsed="true"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" style="1" width="37.1640625" collapsed="true"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" style="1" width="20.6640625" collapsed="true"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="1" width="16.6640625" collapsed="true"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" style="1" width="20.83203125" collapsed="true"/>
+    <col min="45" max="45" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="46" max="47" customWidth="true" style="2" width="19.0" collapsed="true"/>
+    <col min="48" max="52" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" style="1" width="15.83203125" collapsed="true"/>
+    <col min="54" max="54" bestFit="true" customWidth="true" style="1" width="12.6640625" collapsed="true"/>
+    <col min="55" max="55" bestFit="true" customWidth="true" style="1" width="14.6640625" collapsed="true"/>
+    <col min="56" max="56" bestFit="true" customWidth="true" style="1" width="15.1640625" collapsed="true"/>
+    <col min="57" max="58" bestFit="true" customWidth="true" style="1" width="7.6640625" collapsed="true"/>
+    <col min="59" max="59" bestFit="true" customWidth="true" style="1" width="12.83203125" collapsed="true"/>
+    <col min="60" max="60" bestFit="true" customWidth="true" style="1" width="8.5" collapsed="true"/>
+    <col min="61" max="61" bestFit="true" customWidth="true" style="1" width="11.33203125" collapsed="true"/>
+    <col min="62" max="62" bestFit="true" customWidth="true" style="1" width="9.33203125" collapsed="true"/>
+    <col min="63" max="63" bestFit="true" customWidth="true" style="1" width="15.33203125" collapsed="true"/>
+    <col min="64" max="66" customWidth="true" style="13" width="23.5" collapsed="true"/>
+    <col min="67" max="70" customWidth="true" style="2" width="22.33203125" collapsed="true"/>
+    <col min="71" max="71" customWidth="true" style="2" width="23.5" collapsed="true"/>
+    <col min="72" max="72" customWidth="true" style="1" width="23.5" collapsed="true"/>
+    <col min="73" max="73" customWidth="true" style="2" width="23.5" collapsed="true"/>
+    <col min="74" max="74" bestFit="true" customWidth="true" style="1" width="15.33203125" collapsed="true"/>
+    <col min="75" max="75" bestFit="true" customWidth="true" style="1" width="9.1640625" collapsed="true"/>
+    <col min="76" max="76" bestFit="true" customWidth="true" style="1" width="13.1640625" collapsed="true"/>
+    <col min="77" max="77" bestFit="true" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="78" max="78" bestFit="true" customWidth="true" style="1" width="16.33203125" collapsed="true"/>
+    <col min="79" max="79" bestFit="true" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="80" max="16384" style="1" width="9.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:79" s="12" customFormat="1" ht="12.75">
@@ -1343,7 +1431,7 @@
         <v>100</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>99</v>
+        <v>180</v>
       </c>
       <c r="E2" s="14" t="s">
         <v>101</v>
@@ -1479,7 +1567,7 @@
         <v>334242423442</v>
       </c>
       <c r="AX2" s="23" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="AY2" s="20" t="s">
         <v>82</v>
@@ -1564,7 +1652,7 @@
         <v>125</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>126</v>
+        <v>180</v>
       </c>
       <c r="E3" s="27" t="s">
         <v>127</v>
@@ -1702,7 +1790,7 @@
         <v>334242423452</v>
       </c>
       <c r="AX3" s="1" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="AY3" s="2" t="s">
         <v>82</v>
@@ -1779,7 +1867,7 @@
         <v>147</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>146</v>
+        <v>180</v>
       </c>
       <c r="E4" s="27" t="s">
         <v>148</v>
@@ -1913,8 +2001,8 @@
       <c r="AW4" s="19">
         <v>334242423462</v>
       </c>
-      <c r="AX4" s="1">
-        <v>23424242424</v>
+      <c r="AX4" s="1" t="s">
+        <v>181</v>
       </c>
       <c r="AY4" s="2" t="s">
         <v>82</v>
@@ -1991,7 +2079,7 @@
         <v>147</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>146</v>
+        <v>180</v>
       </c>
       <c r="E5" s="27" t="s">
         <v>148</v>
@@ -2125,8 +2213,8 @@
       <c r="AW5" s="19">
         <v>334242423472</v>
       </c>
-      <c r="AX5" s="1">
-        <v>23313123233</v>
+      <c r="AX5" s="1" t="s">
+        <v>181</v>
       </c>
       <c r="AY5" s="2" t="s">
         <v>82</v>

--- a/ui-testsuite/src/main/resources/TestData/Order_AssignRule_APJ_JAPAN_ADM_ITOM_IM_VERTICA.xlsx
+++ b/ui-testsuite/src/main/resources/TestData/Order_AssignRule_APJ_JAPAN_ADM_ITOM_IM_VERTICA.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="184">
   <si>
     <t>Payer Customer Identifier</t>
   </si>
@@ -575,6 +575,12 @@
   </si>
   <si>
     <t>3368274369</t>
+  </si>
+  <si>
+    <t>txzbpd1508838606</t>
+  </si>
+  <si>
+    <t>1086364671</t>
   </si>
 </sst>
 </file>
@@ -584,7 +590,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -633,6 +639,11 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
     </font>
     <font>
       <name val="Arial"/>
@@ -1431,7 +1442,7 @@
         <v>100</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E2" s="14" t="s">
         <v>101</v>
@@ -1567,7 +1578,7 @@
         <v>334242423442</v>
       </c>
       <c r="AX2" s="23" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AY2" s="20" t="s">
         <v>82</v>
@@ -1652,7 +1663,7 @@
         <v>125</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E3" s="27" t="s">
         <v>127</v>
@@ -1790,7 +1801,7 @@
         <v>334242423452</v>
       </c>
       <c r="AX3" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AY3" s="2" t="s">
         <v>82</v>
@@ -1867,7 +1878,7 @@
         <v>147</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E4" s="27" t="s">
         <v>148</v>
@@ -2002,7 +2013,7 @@
         <v>334242423462</v>
       </c>
       <c r="AX4" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AY4" s="2" t="s">
         <v>82</v>
@@ -2079,7 +2090,7 @@
         <v>147</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E5" s="27" t="s">
         <v>148</v>
@@ -2214,7 +2225,7 @@
         <v>334242423472</v>
       </c>
       <c r="AX5" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AY5" s="2" t="s">
         <v>82</v>

--- a/ui-testsuite/src/main/resources/TestData/Order_AssignRule_APJ_JAPAN_ADM_ITOM_IM_VERTICA.xlsx
+++ b/ui-testsuite/src/main/resources/TestData/Order_AssignRule_APJ_JAPAN_ADM_ITOM_IM_VERTICA.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="192">
   <si>
     <t>Payer Customer Identifier</t>
   </si>
@@ -581,6 +581,30 @@
   </si>
   <si>
     <t>1086364671</t>
+  </si>
+  <si>
+    <t>cvlqob5459484464</t>
+  </si>
+  <si>
+    <t>0282120896</t>
+  </si>
+  <si>
+    <t>ihcmzr7978886918</t>
+  </si>
+  <si>
+    <t>1497338258</t>
+  </si>
+  <si>
+    <t>ttffuc9222410403</t>
+  </si>
+  <si>
+    <t>4948227031</t>
+  </si>
+  <si>
+    <t>lwbovn7106701476</t>
+  </si>
+  <si>
+    <t>1281181043</t>
   </si>
 </sst>
 </file>
@@ -590,7 +614,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="21">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -639,6 +663,26 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
     </font>
     <font>
       <name val="Arial"/>
@@ -1442,7 +1486,7 @@
         <v>100</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="E2" s="14" t="s">
         <v>101</v>
@@ -1578,7 +1622,7 @@
         <v>334242423442</v>
       </c>
       <c r="AX2" s="23" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="AY2" s="20" t="s">
         <v>82</v>
@@ -1663,7 +1707,7 @@
         <v>125</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="E3" s="27" t="s">
         <v>127</v>
@@ -1801,7 +1845,7 @@
         <v>334242423452</v>
       </c>
       <c r="AX3" s="1" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="AY3" s="2" t="s">
         <v>82</v>
@@ -1878,7 +1922,7 @@
         <v>147</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="E4" s="27" t="s">
         <v>148</v>
@@ -2013,7 +2057,7 @@
         <v>334242423462</v>
       </c>
       <c r="AX4" s="1" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="AY4" s="2" t="s">
         <v>82</v>
@@ -2090,7 +2134,7 @@
         <v>147</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="E5" s="27" t="s">
         <v>148</v>
@@ -2225,7 +2269,7 @@
         <v>334242423472</v>
       </c>
       <c r="AX5" s="1" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="AY5" s="2" t="s">
         <v>82</v>

--- a/ui-testsuite/src/main/resources/TestData/Order_AssignRule_APJ_JAPAN_ADM_ITOM_IM_VERTICA.xlsx
+++ b/ui-testsuite/src/main/resources/TestData/Order_AssignRule_APJ_JAPAN_ADM_ITOM_IM_VERTICA.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="194">
   <si>
     <t>Payer Customer Identifier</t>
   </si>
@@ -605,6 +605,12 @@
   </si>
   <si>
     <t>1281181043</t>
+  </si>
+  <si>
+    <t>ducwxt1295457442</t>
+  </si>
+  <si>
+    <t>0195662568</t>
   </si>
 </sst>
 </file>
@@ -614,7 +620,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -663,6 +669,11 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
     </font>
     <font>
       <name val="Arial"/>
@@ -1486,7 +1497,7 @@
         <v>100</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E2" s="14" t="s">
         <v>101</v>
@@ -1622,7 +1633,7 @@
         <v>334242423442</v>
       </c>
       <c r="AX2" s="23" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AY2" s="20" t="s">
         <v>82</v>
@@ -1707,7 +1718,7 @@
         <v>125</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E3" s="27" t="s">
         <v>127</v>
@@ -1845,7 +1856,7 @@
         <v>334242423452</v>
       </c>
       <c r="AX3" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AY3" s="2" t="s">
         <v>82</v>
@@ -1922,7 +1933,7 @@
         <v>147</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E4" s="27" t="s">
         <v>148</v>
@@ -2057,7 +2068,7 @@
         <v>334242423462</v>
       </c>
       <c r="AX4" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AY4" s="2" t="s">
         <v>82</v>
@@ -2134,7 +2145,7 @@
         <v>147</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E5" s="27" t="s">
         <v>148</v>
@@ -2269,7 +2280,7 @@
         <v>334242423472</v>
       </c>
       <c r="AX5" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AY5" s="2" t="s">
         <v>82</v>
